--- a/Stocks/PHOENIXLTD.xlsx
+++ b/Stocks/PHOENIXLTD.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>408.83333333333331</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>490.96029318267404</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>484.67341100195591</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>52.301399164679822</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>16.449999999999989</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>18.849999999999966</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.87267904509283922</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>487.49010543282742</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>9.0552425826599574</v>
       </c>
       <c r="Y67">
         <v>13.690403205970014</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>515.75</v>
+      </c>
+      <c r="D83">
+        <v>533.45000000000005</v>
+      </c>
+      <c r="E83">
+        <v>513.1</v>
+      </c>
+      <c r="F83">
+        <v>519.65</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>522.06666666666672</v>
+      </c>
+      <c r="H83">
+        <v>527.55605484456146</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>540.15827389159983</v>
+      </c>
+      <c r="K83">
+        <v>516.81800925249581</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>43.218491067818107</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>6.5499999999999545</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>20.350000000000023</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.32186732186731926</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>523.09703028794786</v>
+      </c>
+      <c r="W83">
+        <v>511.51663317334243</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>11.580397114605432</v>
+      </c>
+      <c r="Y83">
+        <v>11.804000861894687</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>522.9</v>
+      </c>
+      <c r="D84">
+        <v>528.79999999999995</v>
+      </c>
+      <c r="E84">
+        <v>514.04999999999995</v>
+      </c>
+      <c r="F84">
+        <v>526.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>523.11666666666667</v>
+      </c>
+      <c r="H84">
+        <v>525.33636075561412</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J84">
+        <v>537.6342130267999</v>
+      </c>
+      <c r="K84">
+        <v>516.20289608527446</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>51.027174808773637</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>12.450000000000045</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>14.75</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.84406779661017262</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>523.62056408980209</v>
+      </c>
+      <c r="W84">
+        <v>512.62651219753934</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>10.994051892262746</v>
+      </c>
+      <c r="Y84">
+        <v>11.6420110679683</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>524.6</v>
+      </c>
+      <c r="D85">
+        <v>530</v>
+      </c>
+      <c r="E85">
+        <v>516.6</v>
+      </c>
+      <c r="F85">
+        <v>524</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>523.5333333333333</v>
+      </c>
+      <c r="H85">
+        <v>524.43484704447371</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>535.93772124306656</v>
+      </c>
+      <c r="K85">
+        <v>516.29114139965793</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>48.014823028477387</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>7.3999999999999773</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>13.399999999999977</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.55223880597014852</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>523.6789388452172</v>
+      </c>
+      <c r="W85">
+        <v>513.46899277549937</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>10.20994606971783</v>
+      </c>
+      <c r="Y85">
+        <v>11.355598068318205</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>527.6</v>
+      </c>
+      <c r="D86">
+        <v>528.95000000000005</v>
+      </c>
+      <c r="E86">
+        <v>512.04999999999995</v>
+      </c>
+      <c r="F86">
+        <v>515.1</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>518.69999999999993</v>
+      </c>
+      <c r="H86">
+        <v>521.56742352223682</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>534.38489430016284</v>
+      </c>
+      <c r="K86">
+        <v>515.34866553306722</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N86">
+        <v>38.025444433462411</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>3.0500000000000682</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>16.900000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.18047337278106815</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V86">
+        <v>522.3591020997992</v>
+      </c>
+      <c r="W86">
+        <v>513.58980812546235</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>8.769293974336847</v>
+      </c>
+      <c r="Y86">
+        <v>10.838337249521933</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>519.9</v>
+      </c>
+      <c r="D87">
+        <v>526.35</v>
+      </c>
+      <c r="E87">
+        <v>513.6</v>
+      </c>
+      <c r="F87">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>520.7166666666667</v>
+      </c>
+      <c r="H87">
+        <v>521.14204509445176</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>532.59936223345994</v>
+      </c>
+      <c r="K87">
+        <v>514.96007319238561</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>48.67376066863001</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>8.6000000000000227</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>12.75</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.67450980392157045</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>522.33462485367625</v>
+      </c>
+      <c r="W87">
+        <v>514.2276001161689</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>8.107024737507345</v>
+      </c>
+      <c r="Y87">
+        <v>10.292074747119015</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>517</v>
+      </c>
+      <c r="D88">
+        <v>528</v>
+      </c>
+      <c r="E88">
+        <v>508</v>
+      </c>
+      <c r="F88">
+        <v>509</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>515</v>
+      </c>
+      <c r="H88">
+        <v>518.07102254722588</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>531.57728173713554</v>
+      </c>
+      <c r="K88">
+        <v>513.41339026074434</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N88">
+        <v>34.78450568436142</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>20</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.05</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V88">
+        <v>520.2831441069568</v>
+      </c>
+      <c r="W88">
+        <v>513.84037047793413</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>6.4427736290226676</v>
+      </c>
+      <c r="Y88">
+        <v>9.5222145234997448</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>514.6</v>
+      </c>
+      <c r="D89">
+        <v>519.75</v>
+      </c>
+      <c r="E89">
+        <v>502.6</v>
+      </c>
+      <c r="F89">
+        <v>506</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>509.45</v>
+      </c>
+      <c r="H89">
+        <v>513.76051127361291</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>528.94899690666102</v>
+      </c>
+      <c r="K89">
+        <v>511.01041464724563</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N89">
+        <v>32.176101943659667</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>17.149999999999977</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.19825072886297271</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V89">
+        <v>518.08573732127115</v>
+      </c>
+      <c r="W89">
+        <v>513.2596022943834</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>4.826135026887755</v>
+      </c>
+      <c r="Y89">
+        <v>8.5829986241773462</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>506</v>
+      </c>
+      <c r="D90">
+        <v>512.4</v>
+      </c>
+      <c r="E90">
+        <v>494</v>
+      </c>
+      <c r="F90">
+        <v>496.1</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>500.83333333333331</v>
+      </c>
+      <c r="H90">
+        <v>507.29692230347314</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>525.27144203851412</v>
+      </c>
+      <c r="K90">
+        <v>507.23032250341328</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N90">
+        <v>24.574600296045286</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.1000000000000227</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>18.399999999999977</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.11413043478261008</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V90">
+        <v>514.70331619492174</v>
+      </c>
+      <c r="W90">
+        <v>511.98852064294761</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>2.7147955519741345</v>
+      </c>
+      <c r="Y90">
+        <v>7.409358009736704</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>502.05</v>
+      </c>
+      <c r="D91">
+        <v>503</v>
+      </c>
+      <c r="E91">
+        <v>484.1</v>
+      </c>
+      <c r="F91">
+        <v>493</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>493.36666666666662</v>
+      </c>
+      <c r="H91">
+        <v>500.33179448506985</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>520.32223269662211</v>
+      </c>
+      <c r="K91">
+        <v>502.09025083598812</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N91">
+        <v>22.494523913761423</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>8.8999999999999773</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>18.899999999999977</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.47089947089947026</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>511.3643444726261</v>
+      </c>
+      <c r="W91">
+        <v>510.58196355828483</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.78238091434127455</v>
+      </c>
+      <c r="Y91">
+        <v>6.0839625906576185</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>492.5</v>
+      </c>
+      <c r="D92">
+        <v>496.95</v>
+      </c>
+      <c r="E92">
+        <v>488.6</v>
+      </c>
+      <c r="F92">
+        <v>490</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>491.84999999999997</v>
+      </c>
+      <c r="H92">
+        <v>496.09089724253488</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>515.12840320848386</v>
+      </c>
+      <c r="K92">
+        <v>499.09241731687968</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>20.405211020060879</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>8.3499999999999659</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.1676646706586806</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>508.07752224606821</v>
+      </c>
+      <c r="W92">
+        <v>509.05737366507856</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-0.97985141901034467</v>
+      </c>
+      <c r="Y92">
+        <v>4.6711997887240262</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD92">
+        <f t="shared" si="35"/>
+        <v>496</v>
+      </c>
+      <c r="AE92">
+        <f t="shared" si="36"/>
+        <v>493.75</v>
+      </c>
+      <c r="AF92">
+        <f t="shared" si="37"/>
+        <v>492.75</v>
+      </c>
+      <c r="AG92">
+        <f t="shared" si="38"/>
+        <v>491.8</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>498.8</v>
+      </c>
+      <c r="D93">
+        <v>508.6</v>
+      </c>
+      <c r="E93">
+        <v>495</v>
+      </c>
+      <c r="F93">
+        <v>502</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>501.86666666666662</v>
+      </c>
+      <c r="H93">
+        <v>498.97878195460078</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>513.67764693993195</v>
+      </c>
+      <c r="K93">
+        <v>498.182991246462</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N93">
+        <v>45.647002814757244</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>13.600000000000023</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.51470588235294035</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>507.14251882359616</v>
+      </c>
+      <c r="W93">
+        <v>508.53460524544312</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-1.3920864218469546</v>
+      </c>
+      <c r="Y93">
+        <v>3.4585425466098298</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>510</v>
+      </c>
+      <c r="D94">
+        <v>510</v>
+      </c>
+      <c r="E94">
+        <v>502</v>
+      </c>
+      <c r="F94">
+        <v>502.05</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>504.68333333333334</v>
+      </c>
+      <c r="H94">
+        <v>501.83105764396703</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>512.86039206439148</v>
+      </c>
+      <c r="K94">
+        <v>499.03121541391488</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>45.736630271994272</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>5.0000000000011369E-2</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>8</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>6.2500000000014211E-3</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>506.35905438919673</v>
+      </c>
+      <c r="W94">
+        <v>508.05426411615105</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-1.6952097269543174</v>
+      </c>
+      <c r="Y94">
+        <v>2.4277920918970004</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>514</v>
+      </c>
+      <c r="D95">
+        <v>515</v>
+      </c>
+      <c r="E95">
+        <v>501.8</v>
+      </c>
+      <c r="F95">
+        <v>504.35</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>507.05</v>
+      </c>
+      <c r="H95">
+        <v>504.44052882198355</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>513.33586049452674</v>
+      </c>
+      <c r="K95">
+        <v>499.64650087748936</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>50.436120148145712</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>2.5500000000000114</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>13.199999999999989</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.1931818181818192</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>506.04996909855106</v>
+      </c>
+      <c r="W95">
+        <v>507.77987418162132</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-1.729905083070264</v>
+      </c>
+      <c r="Y95">
+        <v>1.5962526569035473</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>514.29999999999995</v>
+      </c>
+      <c r="D96">
+        <v>514.29999999999995</v>
+      </c>
+      <c r="E96">
+        <v>501</v>
+      </c>
+      <c r="F96">
+        <v>502</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>505.76666666666665</v>
+      </c>
+      <c r="H96">
+        <v>505.1035977443251</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>513.55011371796525</v>
+      </c>
+      <c r="K96">
+        <v>499.9472784602695</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>45.412993499282351</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>13.299999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>7.518796992481229E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>505.4268969295432</v>
+      </c>
+      <c r="W96">
+        <v>507.35173535335309</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.9248384238098879</v>
+      </c>
+      <c r="Y96">
+        <v>0.89203444076086025</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>502</v>
+      </c>
+      <c r="D97">
+        <v>507.95</v>
+      </c>
+      <c r="E97">
+        <v>494.5</v>
+      </c>
+      <c r="F97">
+        <v>495.55</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>499.33333333333331</v>
+      </c>
+      <c r="H97">
+        <v>502.21846553882921</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>512.30564400286187</v>
+      </c>
+      <c r="K97">
+        <v>498.73677213576519</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>33.847564486358891</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>13.449999999999989</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>7.8066914498142181E-2</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V97">
+        <v>503.9073743249981</v>
+      </c>
+      <c r="W97">
+        <v>506.47753273458619</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-2.5701584095880889</v>
+      </c>
+      <c r="Y97">
+        <v>0.19959587069107032</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>496</v>
+      </c>
+      <c r="D98">
+        <v>505</v>
+      </c>
+      <c r="E98">
+        <v>495.2</v>
+      </c>
+      <c r="F98">
+        <v>497</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>499.06666666666666</v>
+      </c>
+      <c r="H98">
+        <v>500.64256610274794</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>510.68216755778144</v>
+      </c>
+      <c r="K98">
+        <v>497.9508227722618</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>38.265580506036073</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.8000000000000114</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.18367346938775606</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>502.84470135192146</v>
+      </c>
+      <c r="W98">
+        <v>505.775493272765</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-2.9307919208435464</v>
+      </c>
+      <c r="Y98">
+        <v>-0.42648168761585303</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>495</v>
+      </c>
+      <c r="D99">
+        <v>496.15</v>
+      </c>
+      <c r="E99">
+        <v>486.35</v>
+      </c>
+      <c r="F99">
+        <v>487.3</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>489.93333333333334</v>
+      </c>
+      <c r="H99">
+        <v>495.28794971804064</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>507.45279698938555</v>
+      </c>
+      <c r="K99">
+        <v>495.37286215620361</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>24.553393708011161</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.94999999999998863</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>9.7999999999999545</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>9.693877551020337E-2</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>500.45320883624123</v>
+      </c>
+      <c r="W99">
+        <v>504.40693821552316</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-3.9537293792819241</v>
+      </c>
+      <c r="Y99">
+        <v>-1.1319312259490673</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>495.05</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>492.40000000000003</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>491.25</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>490.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>490.05</v>
+      </c>
+      <c r="D100">
+        <v>503.25</v>
+      </c>
+      <c r="E100">
+        <v>490.05</v>
+      </c>
+      <c r="F100">
+        <v>492.2</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>495.16666666666669</v>
+      </c>
+      <c r="H100">
+        <v>495.22730819235369</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>506.51884210285544</v>
+      </c>
+      <c r="K100">
+        <v>494.19000389926947</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>38.474870559837896</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.1499999999999773</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>13.199999999999989</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.16287878787878629</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>499.18348439989643</v>
+      </c>
+      <c r="W100">
+        <v>503.50272056992884</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>-4.3192361700324113</v>
+      </c>
+      <c r="Y100">
+        <v>-1.7693922147657362</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>491.3</v>
+      </c>
+      <c r="D101">
+        <v>499.3</v>
+      </c>
+      <c r="E101">
+        <v>489</v>
+      </c>
+      <c r="F101">
+        <v>491.45</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>493.25</v>
+      </c>
+      <c r="H101">
+        <v>494.23865409617684</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>504.91465496888759</v>
+      </c>
+      <c r="K101">
+        <v>493.0366696994318</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N101">
+        <v>37.162881606310208</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.4499999999999886</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>10.300000000000011</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.23786407766990156</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>497.99371756914314</v>
+      </c>
+      <c r="W101">
+        <v>502.6099264536378</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>-4.6162088844946538</v>
+      </c>
+      <c r="Y101">
+        <v>-2.3387555487115197</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>493.55</v>
+      </c>
+      <c r="D102">
+        <v>495.85</v>
+      </c>
+      <c r="E102">
+        <v>483.7</v>
+      </c>
+      <c r="F102">
+        <v>491.9</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>490.48333333333329</v>
+      </c>
+      <c r="H102">
+        <v>492.36099371475507</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>502.9002871980237</v>
+      </c>
+      <c r="K102">
+        <v>490.96185421066917</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>38.729860488573195</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>8.1999999999999886</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>12.150000000000034</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.67489711934156094</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>497.05622255850574</v>
+      </c>
+      <c r="W102">
+        <v>501.81659856818317</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-4.7603760096774295</v>
+      </c>
+      <c r="Y102">
+        <v>-2.8230796409047016</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>487.75</v>
+      </c>
+      <c r="D103">
+        <v>487.75</v>
+      </c>
+      <c r="E103">
+        <v>452.2</v>
+      </c>
+      <c r="F103">
+        <v>470</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>469.98333333333335</v>
+      </c>
+      <c r="H103">
+        <v>481.17216352404421</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>499.53355670957399</v>
+      </c>
+      <c r="K103">
+        <v>482.34810883052046</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>15.387248212907046</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>17.800000000000011</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>35.550000000000011</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.50070323488045021</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>492.89372678027411</v>
+      </c>
+      <c r="W103">
+        <v>499.45981348905849</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-6.5660867087843826</v>
+      </c>
+      <c r="Y103">
+        <v>-3.5716810544806377</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>475</v>
+      </c>
+      <c r="D104">
+        <v>503.95</v>
+      </c>
+      <c r="E104">
+        <v>475</v>
+      </c>
+      <c r="F104">
+        <v>502.95</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>493.9666666666667</v>
+      </c>
+      <c r="H104">
+        <v>487.56941509535545</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>500.51498855189089</v>
+      </c>
+      <c r="K104">
+        <v>480.71519575707146</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N104">
+        <v>60.34103187090146</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>27.949999999999989</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>28.949999999999989</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.9654576856649395</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V104">
+        <v>494.44084573715503</v>
+      </c>
+      <c r="W104">
+        <v>499.7183458232023</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-5.2775000860472687</v>
+      </c>
+      <c r="Y104">
+        <v>-3.9128448607939639</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
